--- a/src/main/resources/excel/ejemplo2.xlsx
+++ b/src/main/resources/excel/ejemplo2.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="hojaejemplo1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="hojaejemplo2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="hojaejemplo3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="hojaejemplo2.1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="hojaejemplo2.2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="hojaejemplo2.3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -111,8 +111,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -139,25 +143,25 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -183,30 +187,30 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -232,15 +236,15 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/excel/ejemplo2.xlsx
+++ b/src/main/resources/excel/ejemplo2.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="hojaejemplo2.1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="hojaejemplo2.2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="hojaejemplo2.3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="hojaejemplo21" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="hojaejemplo22" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="hojaejemplo23" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -140,10 +140,10 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="B1:B2 A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -184,10 +184,10 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="B1:B2 A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -230,21 +230,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/excel/ejemplo2.xlsx
+++ b/src/main/resources/excel/ejemplo2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hojaejemplo21" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -137,31 +137,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="B1:B2 A5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -181,36 +193,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="B1:B2 A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -232,11 +259,11 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/src/main/resources/excel/ejemplo2.xlsx
+++ b/src/main/resources/excel/ejemplo2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hojaejemplo21" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,21 +22,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
   </si>
 </sst>
 </file>
@@ -137,13 +152,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -175,6 +190,14 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -193,52 +216,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -259,26 +266,26 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/ejemplo2.xlsx
+++ b/src/main/resources/excel/ejemplo2.xlsx
@@ -22,36 +22,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t xml:space="preserve">k</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence21 – 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracion1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">l</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence21 – 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracion2</t>
+  </si>
+  <si>
     <t xml:space="preserve">m</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence21 – 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracion3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">n</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence21 – 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oracion4</t>
+  </si>
+  <si>
     <t xml:space="preserve">u</t>
   </si>
   <si>
     <t xml:space="preserve">v</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence22 – 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">w</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence22 – 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence22 – 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence22 – 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">y</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentence23 – 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence23 – 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence23 – 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence23 – 4</t>
   </si>
 </sst>
 </file>
@@ -152,13 +206,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.81"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -167,37 +224,73 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -216,36 +309,77 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.98"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>5</v>
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -264,28 +398,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B2"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.36"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
